--- a/biology/Biologie cellulaire et moléculaire/Experimental_Cell_Research/Experimental_Cell_Research.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Experimental_Cell_Research/Experimental_Cell_Research.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Experimental Cell Research est une revue scientifique mensuel à comité de lecture, fondée en 1950 et spécialisée en biologie dans le domaine de la biologie cellulaire, de la biologie moléculaire, et de la cytologie[1]. Elle est publiée en anglais par la société d'éditions Academic Press.
+Experimental Cell Research est une revue scientifique mensuel à comité de lecture, fondée en 1950 et spécialisée en biologie dans le domaine de la biologie cellulaire, de la biologie moléculaire, et de la cytologie. Elle est publiée en anglais par la société d'éditions Academic Press.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, d'après le Journal Citation Reports, son facteur d'impact est de 3,246[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, d'après le Journal Citation Reports, son facteur d'impact est de 3,246.
 </t>
         </is>
       </c>
